--- a/lab2/lab2.xlsx
+++ b/lab2/lab2.xlsx
@@ -86,21 +86,29 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,11 +373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92011520"/>
-        <c:axId val="88803008"/>
+        <c:axId val="93264384"/>
+        <c:axId val="181519488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92011520"/>
+        <c:axId val="93264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +431,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88803008"/>
+        <c:crossAx val="181519488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,7 +439,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88803008"/>
+        <c:axId val="181519488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -509,7 +517,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92011520"/>
+        <c:crossAx val="93264384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,11 +761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132002816"/>
-        <c:axId val="131184832"/>
+        <c:axId val="106660864"/>
+        <c:axId val="673720000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132002816"/>
+        <c:axId val="106660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +819,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131184832"/>
+        <c:crossAx val="673720000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +827,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131184832"/>
+        <c:axId val="673720000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -897,7 +905,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132002816"/>
+        <c:crossAx val="106660864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1141,11 +1149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132003328"/>
-        <c:axId val="131199488"/>
+        <c:axId val="106661376"/>
+        <c:axId val="673722880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132003328"/>
+        <c:axId val="106661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1207,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131199488"/>
+        <c:crossAx val="673722880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1207,7 +1215,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131199488"/>
+        <c:axId val="673722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1285,7 +1293,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132003328"/>
+        <c:crossAx val="106661376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1529,11 +1537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132003840"/>
-        <c:axId val="153018944"/>
+        <c:axId val="106661888"/>
+        <c:axId val="673724608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132003840"/>
+        <c:axId val="106661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1595,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153018944"/>
+        <c:crossAx val="673724608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1595,7 +1603,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153018944"/>
+        <c:axId val="673724608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1673,7 +1681,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132003840"/>
+        <c:crossAx val="106661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,11 +1925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99102720"/>
-        <c:axId val="88804736"/>
+        <c:axId val="93264896"/>
+        <c:axId val="181522368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99102720"/>
+        <c:axId val="93264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1983,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88804736"/>
+        <c:crossAx val="181522368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +1991,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88804736"/>
+        <c:axId val="181522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2061,7 +2069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99102720"/>
+        <c:crossAx val="93264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2305,11 +2313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99103232"/>
-        <c:axId val="88807040"/>
+        <c:axId val="99173888"/>
+        <c:axId val="181524096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99103232"/>
+        <c:axId val="99173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2371,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88807040"/>
+        <c:crossAx val="181524096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2379,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88807040"/>
+        <c:axId val="181524096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2449,7 +2457,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99103232"/>
+        <c:crossAx val="99173888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,11 +2701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99103744"/>
-        <c:axId val="88808768"/>
+        <c:axId val="99174400"/>
+        <c:axId val="181525824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99103744"/>
+        <c:axId val="99174400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2759,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88808768"/>
+        <c:crossAx val="181525824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2759,7 +2767,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88808768"/>
+        <c:axId val="181525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2837,7 +2845,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99103744"/>
+        <c:crossAx val="99174400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,11 +3089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99104256"/>
-        <c:axId val="92509824"/>
+        <c:axId val="99174912"/>
+        <c:axId val="182046656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99104256"/>
+        <c:axId val="99174912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3147,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92509824"/>
+        <c:crossAx val="182046656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3147,7 +3155,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92509824"/>
+        <c:axId val="182046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3225,7 +3233,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99104256"/>
+        <c:crossAx val="99174912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3469,11 +3477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99104768"/>
-        <c:axId val="93290496"/>
+        <c:axId val="99175424"/>
+        <c:axId val="182048960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99104768"/>
+        <c:axId val="99175424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3535,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93290496"/>
+        <c:crossAx val="182048960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3543,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93290496"/>
+        <c:axId val="182048960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -3613,7 +3621,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99104768"/>
+        <c:crossAx val="99175424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3857,11 +3865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100909568"/>
-        <c:axId val="93295680"/>
+        <c:axId val="99175936"/>
+        <c:axId val="322527232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100909568"/>
+        <c:axId val="99175936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3923,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93295680"/>
+        <c:crossAx val="322527232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3923,7 +3931,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93295680"/>
+        <c:axId val="322527232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -4001,7 +4009,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100909568"/>
+        <c:crossAx val="99175936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4234,11 +4242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100910080"/>
-        <c:axId val="131181376"/>
+        <c:axId val="106659840"/>
+        <c:axId val="322528960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100910080"/>
+        <c:axId val="106659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,7 +4300,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131181376"/>
+        <c:crossAx val="322528960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4300,7 +4308,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131181376"/>
+        <c:axId val="322528960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
@@ -4378,7 +4386,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100910080"/>
+        <c:crossAx val="106659840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4611,11 +4619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100912128"/>
-        <c:axId val="131183104"/>
+        <c:axId val="106660352"/>
+        <c:axId val="322530688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100912128"/>
+        <c:axId val="106660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4677,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131183104"/>
+        <c:crossAx val="322530688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4677,7 +4685,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131183104"/>
+        <c:axId val="322530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4755,7 +4763,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100912128"/>
+        <c:crossAx val="106660352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5411,7 +5419,7 @@
   <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9355,17 +9363,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="S98:AB98"/>
-    <mergeCell ref="K98:O98"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="S98:AB98"/>
+    <mergeCell ref="K98:O98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
